--- a/Proyecto/Documentos  Sprint 4/03_Product_Backlog.xlsx
+++ b/Proyecto/Documentos  Sprint 4/03_Product_Backlog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\MINTIC 2022 CICLO 4\PROGRAMACION\Proyecto myhousec4\Documentos Sprint 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\Despliegue\Proyecto\Documentos  Sprint 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -723,7 +723,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="70">
+  <dxfs count="43">
     <dxf>
       <fill>
         <patternFill patternType="lightUp">
@@ -945,160 +945,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1194,50 +1040,6 @@
         <extend val="0"/>
         <color indexed="54"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3241,53 +3043,53 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H4:I10 E5:F10 E31:F32 A4:D10">
-    <cfRule type="expression" dxfId="63" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="7" stopIfTrue="1">
       <formula>$G4="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="8" stopIfTrue="1">
       <formula>$G4="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G10 G16:G30">
-    <cfRule type="expression" dxfId="61" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="9" stopIfTrue="1">
       <formula>$G4="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="10" stopIfTrue="1">
       <formula>$G4="Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="11" stopIfTrue="1" operator="equal">
       <formula>"Unplanned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:F30 E4:F5 F6 H16:I30">
-    <cfRule type="expression" dxfId="58" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="12" stopIfTrue="1">
       <formula>OR($G4="Planned",$G4="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="13" stopIfTrue="1">
       <formula>$G4="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B21">
-    <cfRule type="expression" dxfId="56" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="5" stopIfTrue="1">
       <formula>$G16="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="6" stopIfTrue="1">
       <formula>$G16="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B21">
-    <cfRule type="expression" dxfId="54" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="3" stopIfTrue="1">
       <formula>$G16="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="4" stopIfTrue="1">
       <formula>$G16="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D21">
-    <cfRule type="expression" dxfId="52" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="1" stopIfTrue="1">
       <formula>$G16="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="2" stopIfTrue="1">
       <formula>$G16="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3311,7 +3113,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4150,112 +3952,112 @@
     <mergeCell ref="A3:H3"/>
   </mergeCells>
   <conditionalFormatting sqref="H20:H28 A33:H139 B23:D28 B16:B17 H16:H17 A16:A28 D16:G19 D20 F20:G20 F23:G28 A30:D32 F30:H32 E20:E32 C16:C22 B19:B20 A6:I7 A11:I15 A10 B8:I9">
-    <cfRule type="expression" dxfId="50" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="43" stopIfTrue="1">
       <formula>$C6="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="44" stopIfTrue="1">
       <formula>$C6="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="45" stopIfTrue="1">
       <formula>$C6="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="expression" dxfId="47" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="46" stopIfTrue="1">
       <formula>$C19="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="47" stopIfTrue="1">
       <formula>$C19="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="48" stopIfTrue="1">
       <formula>$C19="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:H19">
-    <cfRule type="expression" dxfId="44" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="49" stopIfTrue="1">
       <formula>#REF!="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="50" stopIfTrue="1">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="51" stopIfTrue="1">
       <formula>#REF!="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="expression" dxfId="38" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="73" stopIfTrue="1">
       <formula>$C8="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="74" stopIfTrue="1">
       <formula>$C8="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="75" stopIfTrue="1">
       <formula>$C8="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="35" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="16" stopIfTrue="1">
       <formula>$C10="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="17" stopIfTrue="1">
       <formula>$C10="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="18" stopIfTrue="1">
       <formula>$C10="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="29" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="13" stopIfTrue="1">
       <formula>$C8="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
       <formula>$C8="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="15" stopIfTrue="1">
       <formula>$C8="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="expression" dxfId="23" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
       <formula>$C10="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
       <formula>$C10="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
       <formula>$C10="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:G10">
-    <cfRule type="expression" dxfId="17" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
       <formula>$C10="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
       <formula>$C10="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
       <formula>$C10="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="11" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
       <formula>$C10="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
       <formula>$C10="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
       <formula>$C10="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
       <formula>$C10="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>$C10="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$C10="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
